--- a/GitCompleteDocument.xlsx
+++ b/GitCompleteDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="530" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="git commands" sheetId="1" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="Creating snapshots">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E25D48-BCB5-4278-BE5F-76F0370FF6BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27E25D48-BCB5-4278-BE5F-76F0370FF6BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1251,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="Creating snapshots">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5261182-56E1-47E3-ADDD-B5B5FD0FC994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5261182-56E1-47E3-ADDD-B5B5FD0FC994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,8 +1359,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>4953000</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>1314450</xdr:rowOff>
         </xdr:to>
@@ -2635,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2644,7 +2644,7 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5703125" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2933,8 +2933,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>4953000</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>1314450</xdr:rowOff>
               </to>
@@ -3150,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
